--- a/KA_Data/Original_KA_Data/K&A private boat data.xlsx
+++ b/KA_Data/Original_KA_Data/K&A private boat data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C01550-9903-4012-9856-F38DD6ACF99C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA9C2D-C6DC-4D97-BDC6-061E3426D31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F65DEB4D-0036-4532-A7B1-FB92F628257A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Final version" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>Total boats</t>
   </si>
@@ -170,16 +171,69 @@
   </si>
   <si>
     <t>Rounding error corrected equally between</t>
+  </si>
+  <si>
+    <t>http://www.wiltshire.gov.uk/sppgt-2017-draft-boaters-survey-with-appendices.pdf</t>
+  </si>
+  <si>
+    <t>boats in Wiltshire</t>
+  </si>
+  <si>
+    <t>Number of responses</t>
+  </si>
+  <si>
+    <t>Continous cruisers</t>
+  </si>
+  <si>
+    <t>percentage continuous</t>
+  </si>
+  <si>
+    <t>boats</t>
+  </si>
+  <si>
+    <t>continuous cruisers</t>
+  </si>
+  <si>
+    <t>length of K&amp;A</t>
+  </si>
+  <si>
+    <t>length of W&amp;B</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>So maybe for W&amp;B</t>
+  </si>
+  <si>
+    <t>SCN pdf</t>
+  </si>
+  <si>
+    <t>Bath to Newbury (basically Wiltshire)</t>
+  </si>
+  <si>
+    <t>roughly half of the KA is in Wiltshire</t>
+  </si>
+  <si>
+    <t>so maybe for K&amp;A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,15 +256,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,11 +579,157 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6405ABE3-EB7B-464F-BBFA-60E2F0782846}">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>500</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <f>F5/F4</f>
+        <v>0.68613138686131392</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <f>22+(2/3*35)</f>
+        <v>45.333333333333329</v>
+      </c>
+      <c r="J8">
+        <f>I8/I18</f>
+        <v>0.48226950354609927</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <f>E13*F6</f>
+        <v>686.1313868613139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <f>E13*M18</f>
+        <v>576.59574468085111</v>
+      </c>
+      <c r="E17">
+        <f>ROUND(D17, 0)</f>
+        <v>577</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>D17*F6</f>
+        <v>395.62043795620446</v>
+      </c>
+      <c r="E18">
+        <f>ROUND(D18, 0)</f>
+        <v>396</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18">
+        <v>94</v>
+      </c>
+      <c r="K18">
+        <v>54.2</v>
+      </c>
+      <c r="M18">
+        <f>K18/I18</f>
+        <v>0.57659574468085106</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{188510A1-2430-4622-BC16-541F786699CA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111FC8EC-E45A-4F75-B471-65469EFEB5A6}">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,12 +962,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EF1DB9-8E92-40B6-8916-4418A4FF4234}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/KA_Data/Original_KA_Data/K&A private boat data.xlsx
+++ b/KA_Data/Original_KA_Data/K&A private boat data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA9C2D-C6DC-4D97-BDC6-061E3426D31F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A252E58-B9B1-4F23-A0AE-28BFFF5A8BFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F65DEB4D-0036-4532-A7B1-FB92F628257A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
   <si>
     <t>Total boats</t>
   </si>
@@ -191,9 +191,6 @@
     <t>boats</t>
   </si>
   <si>
-    <t>continuous cruisers</t>
-  </si>
-  <si>
     <t>length of K&amp;A</t>
   </si>
   <si>
@@ -216,6 +213,12 @@
   </si>
   <si>
     <t>so maybe for K&amp;A</t>
+  </si>
+  <si>
+    <t>of which are continuous cruisers</t>
+  </si>
+  <si>
+    <t>Home/leisure</t>
   </si>
 </sst>
 </file>
@@ -580,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6405ABE3-EB7B-464F-BBFA-60E2F0782846}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -626,7 +629,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -639,15 +642,19 @@
         <v>0.48226950354609927</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N8" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
       </c>
       <c r="E13">
+        <f>ROUND(D13, 0)</f>
         <v>1000</v>
       </c>
       <c r="F13" t="s">
@@ -655,25 +662,38 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <f>D13*F6</f>
+        <v>686.1313868613139</v>
+      </c>
       <c r="E14">
-        <f>E13*F6</f>
-        <v>686.1313868613139</v>
+        <f>ROUND(D14, 0)</f>
+        <v>686</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <f>E13-E14</f>
+        <v>314</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <f>E13*M18</f>
+        <f>D13*M18</f>
         <v>576.59574468085111</v>
       </c>
       <c r="E17">
@@ -684,13 +704,13 @@
         <v>51</v>
       </c>
       <c r="I17" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s">
         <v>53</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="s">
         <v>54</v>
-      </c>
-      <c r="M17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -703,7 +723,7 @@
         <v>396</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I18">
         <v>94</v>
@@ -714,6 +734,15 @@
       <c r="M18">
         <f>K18/I18</f>
         <v>0.57659574468085106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <f>E17-E18</f>
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/KA_Data/Original_KA_Data/K&A private boat data.xlsx
+++ b/KA_Data/Original_KA_Data/K&A private boat data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kezij\iCloudDrive\Documents\Bristol\Year 3\MDM3\W&amp;B Canal\Canals\KA_Data\Original_KA_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Canals\KA_Data\Original_KA_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A252E58-B9B1-4F23-A0AE-28BFFF5A8BFA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20E0FE8-0DD4-42F6-839E-C5A8201DBCF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F65DEB4D-0036-4532-A7B1-FB92F628257A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F65DEB4D-0036-4532-A7B1-FB92F628257A}"/>
   </bookViews>
   <sheets>
     <sheet name="Final version" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
   <si>
     <t>Total boats</t>
   </si>
@@ -215,10 +215,19 @@
     <t>so maybe for K&amp;A</t>
   </si>
   <si>
-    <t>of which are continuous cruisers</t>
-  </si>
-  <si>
-    <t>Home/leisure</t>
+    <t>roughly on the system at any time</t>
+  </si>
+  <si>
+    <t>Private moorings</t>
+  </si>
+  <si>
+    <t>continuous cruisers &amp; end boats</t>
+  </si>
+  <si>
+    <t>20% of hire boats</t>
+  </si>
+  <si>
+    <t>Day boats</t>
   </si>
 </sst>
 </file>
@@ -242,12 +251,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -263,11 +278,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -583,20 +599,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6405ABE3-EB7B-464F-BBFA-60E2F0782846}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>500</v>
       </c>
@@ -610,7 +629,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>49</v>
       </c>
@@ -618,7 +637,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>50</v>
       </c>
@@ -627,18 +646,18 @@
         <v>0.68613138686131392</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I8">
         <f>22+(2/3*35)</f>
         <v>45.333333333333329</v>
       </c>
       <c r="J8">
-        <f>I8/I18</f>
+        <f>I8/I19</f>
         <v>0.48226950354609927</v>
       </c>
       <c r="L8" t="s">
@@ -646,103 +665,124 @@
       </c>
       <c r="N8" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
       <c r="D13">
         <v>1000</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>ROUND(D13, 0)</f>
         <v>1000</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14">
         <f>D13*F6</f>
         <v>686.1313868613139</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>ROUND(D14, 0)</f>
         <v>686</v>
       </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E15">
+      <c r="F14" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
         <f>E13-E14</f>
         <v>314</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
-        <f>D13*M18</f>
+      <c r="D18">
+        <f>D13*M19</f>
         <v>576.59574468085111</v>
       </c>
-      <c r="E17">
-        <f>ROUND(D17, 0)</f>
+      <c r="E18" s="4">
+        <f>ROUND(D18, 0)</f>
         <v>577</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>52</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>53</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <f>D17*F6</f>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f>D18*F6</f>
         <v>395.62043795620446</v>
       </c>
-      <c r="E18">
-        <f>ROUND(D18, 0)</f>
+      <c r="E19" s="4">
+        <f>ROUND(D19, 0)</f>
         <v>396</v>
       </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18">
+      <c r="F19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19">
         <v>94</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>54.2</v>
       </c>
-      <c r="M18">
-        <f>K18/I18</f>
+      <c r="M19">
+        <f>K19/I19</f>
         <v>0.57659574468085106</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E19">
-        <f>E17-E18</f>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <f>E18-E19</f>
         <v>181</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="4" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -761,14 +801,14 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>559</v>
       </c>
@@ -776,12 +816,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.06</v>
       </c>
@@ -789,12 +829,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -805,7 +845,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>595</v>
       </c>
@@ -816,12 +856,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <f>0.372</f>
         <v>0.372</v>
@@ -838,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>0.012</f>
         <v>1.2E-2</v>
@@ -855,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <f>0.2+0.082</f>
         <v>0.28200000000000003</v>
@@ -872,7 +912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1.2E-2</v>
       </c>
@@ -888,7 +928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>0.322</f>
         <v>0.32200000000000001</v>
@@ -905,12 +945,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>45</v>
       </c>
@@ -922,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
         <v>37</v>
       </c>
@@ -934,12 +974,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>34</v>
       </c>
@@ -947,7 +987,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23">
         <f>D12+D14</f>
         <v>389</v>
@@ -956,7 +996,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>D13</f>
         <v>7</v>
@@ -965,7 +1005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25">
         <f>H19</f>
         <v>158</v>
@@ -974,7 +1014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>D15</f>
         <v>7</v>
@@ -999,14 +1039,14 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1014,7 +1054,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1022,7 +1062,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>10</v>
       </c>
@@ -1030,7 +1070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E7">
         <f>C8/B5</f>
         <v>8.6206896551724144E-2</v>
@@ -1043,7 +1083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1088,7 +1128,7 @@
         <v>982.17306441119069</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -1116,7 +1156,7 @@
         <v>521.63009404388708</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>6</v>
       </c>
@@ -1144,7 +1184,7 @@
         <v>459.77011494252878</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -1171,7 +1211,7 @@
         <v>220.68965517241381</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -1201,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -1228,12 +1268,12 @@
         <v>27.586206896551726</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1241,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1249,7 +1289,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>21</v>
       </c>
